--- a/Data Sources/Subnational Consumption/GasBioenergySplit.xlsx
+++ b/Data Sources/Subnational Consumption/GasBioenergySplit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\GitHub\ScottishEnergyStatsProcessing\Data Sources\Subnational Consumption\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\GitHub\ScottishEnergyStatsProcessing\Data Sources\Subnational Consumption\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1DAC628-6E41-41AE-8BBA-9A4A5EEFE037}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFBC207-DCC5-48AD-A9FF-74AC42A410AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{AED500BB-4C97-4F62-99B2-98118E243439}"/>
+    <workbookView xWindow="-28920" yWindow="15855" windowWidth="29040" windowHeight="15720" xr2:uid="{AED500BB-4C97-4F62-99B2-98118E243439}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,22 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="7">
   <si>
     <t>Year</t>
   </si>
@@ -403,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD929EB-E039-4A4A-AADD-9257A5ACDD7D}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection sqref="A1:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -439,19 +449,19 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>2018</v>
+        <v>2005</v>
       </c>
       <c r="C2">
-        <v>0.51789832347042253</v>
+        <v>0.51452787504337516</v>
       </c>
       <c r="D2">
-        <v>0.48210167652957747</v>
+        <v>0.48547212495662484</v>
       </c>
       <c r="E2">
-        <v>0.55736998111591318</v>
+        <v>0.79913972667694022</v>
       </c>
       <c r="F2">
-        <v>0.44263001888408687</v>
+        <v>0.20086027332305978</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -459,19 +469,19 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2017</v>
+        <v>2006</v>
       </c>
       <c r="C3">
-        <v>0.52090804141911462</v>
+        <v>0.51452787504337516</v>
       </c>
       <c r="D3">
-        <v>0.47909195858088538</v>
+        <v>0.48547212495662484</v>
       </c>
       <c r="E3">
-        <v>0.53528276802875108</v>
+        <v>0.79913972667694022</v>
       </c>
       <c r="F3">
-        <v>0.46471723197124892</v>
+        <v>0.20086027332305978</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -479,19 +489,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2016</v>
+        <v>2007</v>
       </c>
       <c r="C4">
-        <v>0.53837382087751273</v>
+        <v>0.51452787504337516</v>
       </c>
       <c r="D4">
-        <v>0.46162617912248727</v>
+        <v>0.48547212495662484</v>
       </c>
       <c r="E4">
-        <v>0.53960329274254037</v>
+        <v>0.79913972667694022</v>
       </c>
       <c r="F4">
-        <v>0.46039670725745963</v>
+        <v>0.20086027332305978</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -499,19 +509,19 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>2015</v>
+        <v>2008</v>
       </c>
       <c r="C5">
-        <v>0.53863044898095891</v>
+        <v>0.51452787504337516</v>
       </c>
       <c r="D5">
-        <v>0.46136955101904109</v>
+        <v>0.48547212495662484</v>
       </c>
       <c r="E5">
-        <v>0.45185904120762821</v>
+        <v>0.79913972667694022</v>
       </c>
       <c r="F5">
-        <v>0.54814095879237179</v>
+        <v>0.20086027332305978</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -519,19 +529,19 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="C6">
-        <v>0.53534331631254506</v>
+        <v>0.51452787504337516</v>
       </c>
       <c r="D6">
-        <v>0.46465668368745494</v>
+        <v>0.48547212495662484</v>
       </c>
       <c r="E6">
-        <v>0.78183684480648519</v>
+        <v>0.79913972667694022</v>
       </c>
       <c r="F6">
-        <v>0.21816315519351481</v>
+        <v>0.20086027332305978</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -539,19 +549,19 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="C7">
-        <v>0.50239357556753583</v>
+        <v>0.51452787504337516</v>
       </c>
       <c r="D7">
-        <v>0.49760642443246417</v>
+        <v>0.48547212495662484</v>
       </c>
       <c r="E7">
-        <v>0.76436142024377318</v>
+        <v>0.79913972667694022</v>
       </c>
       <c r="F7">
-        <v>0.23563857975622682</v>
+        <v>0.20086027332305978</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -559,19 +569,19 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C8">
-        <v>0.50426495825084339</v>
+        <v>0.54749983723713802</v>
       </c>
       <c r="D8">
-        <v>0.49573504174915661</v>
+        <v>0.45250016276286198</v>
       </c>
       <c r="E8">
-        <v>0.80505861597058481</v>
+        <v>0.82498834498834495</v>
       </c>
       <c r="F8">
-        <v>0.19494138402941519</v>
+        <v>0.17501165501165505</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -579,19 +589,19 @@
         <v>2</v>
       </c>
       <c r="B9">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C9">
-        <v>0.54749983723713802</v>
+        <v>0.50426495825084339</v>
       </c>
       <c r="D9">
-        <v>0.45250016276286198</v>
+        <v>0.49573504174915661</v>
       </c>
       <c r="E9">
-        <v>0.82498834498834495</v>
+        <v>0.80505861597058481</v>
       </c>
       <c r="F9">
-        <v>0.17501165501165505</v>
+        <v>0.19494138402941519</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -599,19 +609,19 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="C10">
-        <v>0.51452787504337516</v>
+        <v>0.50239357556753583</v>
       </c>
       <c r="D10">
-        <v>0.48547212495662484</v>
+        <v>0.49760642443246417</v>
       </c>
       <c r="E10">
-        <v>0.79913972667694022</v>
+        <v>0.76436142024377318</v>
       </c>
       <c r="F10">
-        <v>0.20086027332305978</v>
+        <v>0.23563857975622682</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -619,19 +629,19 @@
         <v>2</v>
       </c>
       <c r="B11">
-        <v>2009</v>
+        <v>2014</v>
       </c>
       <c r="C11">
-        <v>0.51452787504337516</v>
+        <v>0.53534331631254506</v>
       </c>
       <c r="D11">
-        <v>0.48547212495662484</v>
+        <v>0.46465668368745494</v>
       </c>
       <c r="E11">
-        <v>0.79913972667694022</v>
+        <v>0.78183684480648519</v>
       </c>
       <c r="F11">
-        <v>0.20086027332305978</v>
+        <v>0.21816315519351481</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -639,82 +649,25 @@
         <v>2</v>
       </c>
       <c r="B12">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="C12">
-        <v>0.51452787504337516</v>
+        <v>0.53863044898095891</v>
       </c>
       <c r="D12">
-        <v>0.48547212495662484</v>
+        <v>0.46136955101904109</v>
       </c>
       <c r="E12">
-        <v>0.79913972667694022</v>
+        <v>0.45185904120762821</v>
       </c>
       <c r="F12">
-        <v>0.20086027332305978</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13">
-        <v>2007</v>
-      </c>
-      <c r="C13">
-        <v>0.51452787504337516</v>
-      </c>
-      <c r="D13">
-        <v>0.48547212495662484</v>
-      </c>
-      <c r="E13">
-        <v>0.79913972667694022</v>
-      </c>
-      <c r="F13">
-        <v>0.20086027332305978</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14">
-        <v>2006</v>
-      </c>
-      <c r="C14">
-        <v>0.51452787504337516</v>
-      </c>
-      <c r="D14">
-        <v>0.48547212495662484</v>
-      </c>
-      <c r="E14">
-        <v>0.79913972667694022</v>
-      </c>
-      <c r="F14">
-        <v>0.20086027332305978</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15">
-        <v>2005</v>
-      </c>
-      <c r="C15">
-        <v>0.51452787504337516</v>
-      </c>
-      <c r="D15">
-        <v>0.48547212495662484</v>
-      </c>
-      <c r="E15">
-        <v>0.79913972667694022</v>
-      </c>
-      <c r="F15">
-        <v>0.20086027332305978</v>
+        <v>0.54814095879237179</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F12">
+    <sortCondition ref="B2:B12"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
